--- a/biology/Médecine/Tétanos_(maladie_professionnelle)/Tétanos_(maladie_professionnelle).xlsx
+++ b/biology/Médecine/Tétanos_(maladie_professionnelle)/Tétanos_(maladie_professionnelle).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>T%C3%A9tanos_(maladie_professionnelle)</t>
+          <t>Tétanos_(maladie_professionnelle)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le tétanos est une maladie professionnelle. Cette maladie infectieuse peut être contractée lors de blessure au cours d'accident de travail. Le tableau suivant répertorie les conditions dans lesquels un tétanos peut être reconnu maladie professionnelle en l'absence d'accident déclaré (plaie minime passée inaperçue).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>T%C3%A9tanos_(maladie_professionnelle)</t>
+          <t>Tétanos_(maladie_professionnelle)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,12 +525,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Régime général
-Régime agricole
-Données médicales
-Le tétanos est causé par la contamination d'une plaie par des spores de Clostridium tetani, qui vont ensuite germer et se transformer en bacille sécrétant une neurotoxine qui migre le long des axones des nerfs moteurs jusqu'à la moelle épinière et le tronc cérébral, entraînant des contractures musculaires caractéristiques, des spasmes et des convulsions et éventuellement la mort.
-Prévention
-La prévention est basée sur un vaccin anti-tétanique très efficace, sur le lavage de toute plaie et l'administration prophylactique d’immunoglobulines anti-tétaniques en cas de plaie à risque. Une fois la maladie installée, le traitement est long et difficile.
+          <t>Données médicales</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tétanos est causé par la contamination d'une plaie par des spores de Clostridium tetani, qui vont ensuite germer et se transformer en bacille sécrétant une neurotoxine qui migre le long des axones des nerfs moteurs jusqu'à la moelle épinière et le tronc cérébral, entraînant des contractures musculaires caractéristiques, des spasmes et des convulsions et éventuellement la mort.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Tétanos_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/T%C3%A9tanos_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Législation en  France</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Prévention</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La prévention est basée sur un vaccin anti-tétanique très efficace, sur le lavage de toute plaie et l'administration prophylactique d’immunoglobulines anti-tétaniques en cas de plaie à risque. Une fois la maladie installée, le traitement est long et difficile.
 </t>
         </is>
       </c>
